--- a/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/烟酒及饮料类农村居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/农村居民消费价格分类指数(上年=100)(-2015)/烟酒及饮料类农村居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,252 +453,96 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>100.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>103.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.7</v>
+        <v>100.21646945</v>
       </c>
       <c r="C3" t="n">
-        <v>99.59999999999999</v>
+        <v>102.44833372</v>
       </c>
       <c r="D3" t="n">
-        <v>99.40000000000001</v>
+        <v>105.72452082</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.2</v>
+        <v>100.9265276</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>102.72663005</v>
       </c>
       <c r="D4" t="n">
-        <v>99.7</v>
+        <v>105.23135055</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99.854</v>
+        <v>100.9</v>
       </c>
       <c r="C5" t="n">
-        <v>99.9258</v>
+        <v>100.8</v>
       </c>
       <c r="D5" t="n">
-        <v>100.0759</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.0891</v>
+        <v>100.3</v>
       </c>
       <c r="C6" t="n">
-        <v>101.3024</v>
+        <v>99.5</v>
       </c>
       <c r="D6" t="n">
-        <v>101.7141</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.4335</v>
+        <v>104.77484598</v>
       </c>
       <c r="C7" t="n">
-        <v>100.5424</v>
+        <v>102.34796513</v>
       </c>
       <c r="D7" t="n">
-        <v>100.791</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100.13775535</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100.30551295</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100.56882889</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>101.00408677</v>
-      </c>
-      <c r="C9" t="n">
-        <v>101.57382088</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102.62634798</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.51668234</v>
-      </c>
-      <c r="C10" t="n">
-        <v>102.58417554</v>
-      </c>
-      <c r="D10" t="n">
-        <v>106.1258785</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>100.2744489</v>
-      </c>
-      <c r="C11" t="n">
-        <v>101.26954047</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.90144648</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>103.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.21646945</v>
-      </c>
-      <c r="C13" t="n">
-        <v>102.44833372</v>
-      </c>
-      <c r="D13" t="n">
-        <v>105.72452082</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>100.9265276</v>
-      </c>
-      <c r="C14" t="n">
-        <v>102.72663005</v>
-      </c>
-      <c r="D14" t="n">
-        <v>105.23135055</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>104.77484598</v>
-      </c>
-      <c r="C17" t="n">
-        <v>102.34796513</v>
-      </c>
-      <c r="D17" t="n">
         <v>99.03613721000001</v>
       </c>
     </row>
